--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\github_pre\missao-frotas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C6B00-CF19-4AD9-97D6-77EAFF2AD231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C80CFA-34CC-43B5-81FF-142E2B2203FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Término</t>
   </si>
   <si>
-    <t>Comentário</t>
-  </si>
-  <si>
     <t>Planejado</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Todos testarão no insomnia</t>
+  </si>
+  <si>
+    <t>Deu inicio ao CRUD</t>
+  </si>
+  <si>
+    <t>Finalizando o CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (500%)</t>
   </si>
 </sst>
 </file>
@@ -193,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -286,32 +298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -395,47 +381,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,10 +415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,47 +423,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,23 +487,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +530,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>135923</xdr:colOff>
+      <xdr:colOff>135924</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>280308</xdr:rowOff>
     </xdr:to>
@@ -888,14 +868,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+      <selection activeCell="N6" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -904,497 +885,515 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="11"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="52" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="53" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="36" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="33" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="38" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>3</v>
+      </c>
+      <c r="L7" s="25">
+        <v>4</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+      <c r="N7" s="49"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
-    </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="51" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H8" s="16">
+        <v>44229</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="28">
+        <v>1</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H9" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="28">
         <v>0</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-      <c r="K8" s="19">
-        <v>3</v>
-      </c>
-      <c r="L8" s="19">
-        <v>4</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1</v>
-      </c>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="22">
+      <c r="E11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="16">
         <v>44228</v>
       </c>
-      <c r="H9" s="22">
-        <v>44229</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="22">
-        <v>44228</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="H11" s="16">
         <v>44246</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="22">
-        <v>44228</v>
-      </c>
-      <c r="H11" s="22">
-        <v>44246</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="N11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="22">
+      <c r="D12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="16">
         <v>44228</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="16">
         <v>44246</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="28">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="22">
-        <v>44228</v>
-      </c>
-      <c r="H13" s="22">
-        <v>44246</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="19">
+        <v>44249</v>
+      </c>
+      <c r="H13" s="19">
+        <v>44253</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="3"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="27">
-        <v>44249</v>
-      </c>
-      <c r="H14" s="27">
-        <v>44253</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="30"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
       <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13">
+      <c r="N15" s="24"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10">
         <v>9</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C80CFA-34CC-43B5-81FF-142E2B2203FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153DA96F-06DE-481D-972F-A3937186695F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Item</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Legenda</t>
   </si>
   <si>
-    <t>Revisão: 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data: </t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
@@ -135,7 +129,19 @@
     <t>Finalizando o CRUD</t>
   </si>
   <si>
-    <t xml:space="preserve"> (%) Total (500%)</t>
+    <t>Desenvolver documentação</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (600%)</t>
+  </si>
+  <si>
+    <t>Revisão: 1.2</t>
+  </si>
+  <si>
+    <t>Data:  07/02/2021</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,6 +430,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,17 +454,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,44 +508,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +880,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,7 +889,8 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
@@ -908,155 +918,155 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="49" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="32" t="s">
-        <v>32</v>
+      <c r="O6" s="45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="29">
         <v>1</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="29">
         <v>2</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="29">
         <v>3</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="32"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1064,15 +1074,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1084,11 +1094,11 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="28">
+      <c r="N8" s="24">
         <v>1</v>
       </c>
-      <c r="O8" s="29" t="s">
-        <v>33</v>
+      <c r="O8" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1097,15 +1107,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="35"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1117,10 +1127,10 @@
       <c r="K9" s="22"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="28">
+      <c r="N9" s="24">
         <v>0</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
@@ -1128,15 +1138,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="40"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="35"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1148,11 +1158,11 @@
       <c r="K10" s="22"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="28">
+      <c r="N10" s="24">
         <v>0.1</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>34</v>
+      <c r="O10" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,15 +1171,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="40"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="35"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1181,11 +1191,11 @@
       <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="28">
+      <c r="N11" s="24">
         <v>0.5</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>35</v>
+      <c r="O11" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1194,15 +1204,15 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="33"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1214,58 +1224,70 @@
       <c r="K12" s="22"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="28">
+      <c r="N12" s="24">
         <v>0</v>
       </c>
-      <c r="O12" s="29"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="19">
-        <v>44249</v>
-      </c>
-      <c r="H13" s="19">
-        <v>44253</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="22"/>
+      <c r="C13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H13" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="19">
+        <v>44249</v>
+      </c>
+      <c r="H14" s="19">
+        <v>44253</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
@@ -1274,8 +1296,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1283,8 +1305,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="29"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
@@ -1293,17 +1315,17 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="27"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1367,16 +1389,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1389,11 +1406,16 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153DA96F-06DE-481D-972F-A3937186695F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -123,12 +122,6 @@
     <t>Todos testarão no insomnia</t>
   </si>
   <si>
-    <t>Deu inicio ao CRUD</t>
-  </si>
-  <si>
-    <t>Finalizando o CRUD</t>
-  </si>
-  <si>
     <t>Desenvolver documentação</t>
   </si>
   <si>
@@ -142,12 +135,21 @@
   </si>
   <si>
     <t>Data:  07/02/2021</t>
+  </si>
+  <si>
+    <t>READ, INSERT, DEL</t>
+  </si>
+  <si>
+    <t>PENDÊNTE</t>
+  </si>
+  <si>
+    <t>EM ANDAMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,6 +456,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,9 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,14 +875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -918,132 +920,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="48" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="45" t="s">
+      <c r="N6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1065,8 +1067,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="45"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1079,10 +1081,10 @@
       <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1112,10 +1114,10 @@
       <c r="D9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1128,9 +1130,11 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="24">
-        <v>0</v>
-      </c>
-      <c r="O9" s="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
@@ -1143,10 +1147,10 @@
       <c r="D10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1159,10 +1163,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1176,10 +1180,10 @@
       <c r="D11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1192,10 +1196,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,10 +1213,10 @@
       <c r="D12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1227,23 +1231,25 @@
       <c r="N12" s="24">
         <v>0</v>
       </c>
-      <c r="O12" s="25"/>
+      <c r="O12" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>34</v>
+      <c r="C13" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1256,9 +1262,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
       <c r="N13" s="24">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1271,10 +1279,10 @@
       <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1286,7 +1294,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="28"/>
+      <c r="N14" s="24">
+        <v>0</v>
+      </c>
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1296,8 +1306,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1315,8 +1325,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="31"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-frotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0A30E-BDC3-4CCA-91DB-D524109E534A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -131,12 +138,6 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>Revisão: 1.2</t>
-  </si>
-  <si>
-    <t>Data:  07/02/2021</t>
-  </si>
-  <si>
     <t>READ, INSERT, DEL</t>
   </si>
   <si>
@@ -144,13 +145,19 @@
   </si>
   <si>
     <t>EM ANDAMENTO</t>
+  </si>
+  <si>
+    <t>Revisão: 1.3</t>
+  </si>
+  <si>
+    <t>Data:  09/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +182,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -438,9 +453,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,59 +471,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,14 +890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I4" sqref="I4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,155 +935,155 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="49" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="29" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>1</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>3</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>4</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <v>1</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1078,13 +1093,13 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1111,13 +1126,13 @@
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1133,7 +1148,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1144,13 +1159,13 @@
       <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,13 +1192,13 @@
       <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>0.75</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1210,13 +1225,13 @@
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,16 +1255,16 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1265,7 +1280,7 @@
         <v>0.5</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1291,13 @@
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1306,8 +1321,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1315,7 +1330,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1325,17 +1340,20 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="N16" s="50">
+        <f>SUM(N8:N15)</f>
+        <v>3.75</v>
+      </c>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1399,11 +1417,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1416,16 +1439,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -459,59 +459,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +882,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,132 +920,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="47" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="49" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1067,8 +1067,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1081,10 +1081,10 @@
       <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1114,10 +1114,10 @@
       <c r="D9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>38</v>
@@ -1147,10 +1147,10 @@
       <c r="D10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1163,10 +1163,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,10 +1180,10 @@
       <c r="D11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1213,10 +1213,10 @@
       <c r="D12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1246,10 +1246,10 @@
       <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1279,10 +1279,10 @@
       <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1306,8 +1306,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1325,8 +1325,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="31"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1399,11 +1399,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1416,16 +1421,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Comentários</t>
   </si>
   <si>
-    <t>Todos testarão no insomnia</t>
-  </si>
-  <si>
     <t>Desenvolver documentação</t>
   </si>
   <si>
@@ -137,20 +134,26 @@
     <t>Data:  07/02/2021</t>
   </si>
   <si>
-    <t>READ, INSERT, DEL</t>
-  </si>
-  <si>
-    <t>PENDÊNTE</t>
-  </si>
-  <si>
     <t>EM ANDAMENTO</t>
+  </si>
+  <si>
+    <t>READ, CREATE,UPDATE,  DELETE</t>
+  </si>
+  <si>
+    <t>SEM PARTICIPAÇÃO NO PROJETO ATÉ O MOMENTO</t>
+  </si>
+  <si>
+    <t>TODOS TESTARÃO NO INSÔMINIA</t>
+  </si>
+  <si>
+    <t>FASE FINAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +178,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -438,9 +449,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +467,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,45 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +893,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,7 +908,7 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -920,155 +931,155 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="48" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="36" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="29" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>1</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>3</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>4</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <v>1</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1078,13 +1089,13 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,13 +1122,13 @@
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1144,13 +1155,13 @@
       <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1163,10 +1174,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,13 +1188,13 @@
       <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1196,7 +1207,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>37</v>
@@ -1210,13 +1221,13 @@
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1240,16 +1251,16 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1262,10 +1273,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
       <c r="N13" s="24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1287,13 @@
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1306,8 +1317,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1315,7 +1326,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1325,17 +1336,20 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="N16" s="32">
+        <f>SUM(N8:N15)</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1399,16 +1413,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1421,11 +1430,16 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-frotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51250EE4-0019-4167-835F-B60F277DBE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -128,12 +135,6 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>Revisão: 1.2</t>
-  </si>
-  <si>
-    <t>Data:  07/02/2021</t>
-  </si>
-  <si>
     <t>EM ANDAMENTO</t>
   </si>
   <si>
@@ -147,12 +148,18 @@
   </si>
   <si>
     <t>FASE FINAL</t>
+  </si>
+  <si>
+    <t>Revisão: 1.4</t>
+  </si>
+  <si>
+    <t>Data:  11/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,59 +477,59 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -931,132 +938,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="49" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1078,8 +1085,8 @@
       <c r="M7" s="28">
         <v>1</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1092,10 +1099,10 @@
       <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1125,10 +1132,10 @@
       <c r="D9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1141,10 +1148,10 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,10 +1165,10 @@
       <c r="D10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>0.25</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,10 +1198,10 @@
       <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,10 +1231,10 @@
       <c r="D12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,10 +1264,10 @@
       <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1273,10 +1280,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
       <c r="N13" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,10 +1297,10 @@
       <c r="D14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1317,8 +1324,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1336,8 +1343,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1347,7 +1354,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="32">
         <f>SUM(N8:N15)</f>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" s="26"/>
     </row>
@@ -1413,11 +1420,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1430,16 +1442,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-frotas/materiais/cronograma_frotas.xlsx
+++ b/missao-frotas/materiais/cronograma_frotas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-frotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno.DSN5131112167\Desktop\conteudo\EcoSystem\ecosystem\missao-frotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51250EE4-0019-4167-835F-B60F277DBE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,9 +119,6 @@
     <t>Desenvolver o APP login e cadastro</t>
   </si>
   <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
     <t>Comentários</t>
   </si>
   <si>
@@ -138,28 +134,31 @@
     <t>EM ANDAMENTO</t>
   </si>
   <si>
-    <t>READ, CREATE,UPDATE,  DELETE</t>
-  </si>
-  <si>
     <t>SEM PARTICIPAÇÃO NO PROJETO ATÉ O MOMENTO</t>
   </si>
   <si>
-    <t>TODOS TESTARÃO NO INSÔMINIA</t>
-  </si>
-  <si>
     <t>FASE FINAL</t>
   </si>
   <si>
-    <t>Revisão: 1.4</t>
-  </si>
-  <si>
-    <t>Data:  11/02/2021</t>
+    <t>TODOS TESTARÃO NO INSÔMINIA OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>READ, CREATE,UPDATE,  DELETE OK</t>
+  </si>
+  <si>
+    <t>Data:  08/03/2021</t>
+  </si>
+  <si>
+    <t>Revisão: 1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +567,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,14 +892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I2" sqref="I2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -950,7 +949,7 @@
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
@@ -971,7 +970,7 @@
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
@@ -1051,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="16">
@@ -1145,13 +1144,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="24">
         <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1178,13 +1177,13 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1211,13 +1210,13 @@
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="24">
         <v>1</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="16">
@@ -1244,13 +1243,13 @@
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="24">
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="16">
@@ -1277,13 +1276,13 @@
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="24">
         <v>0</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1353,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="32">
         <f>SUM(N8:N15)</f>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O16" s="26"/>
     </row>
